--- a/tut06/output/2001EE84.xlsx
+++ b/tut06/output/2001EE84.xlsx
@@ -666,7 +666,7 @@
         <v>1</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
